--- a/Document/goodReceives_DataIntegrasi.xlsx
+++ b/Document/goodReceives_DataIntegrasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Katalon Studio\Bio-Farma\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975D7736-B93D-40D3-B342-4AA700A72C85}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07969E8-ABA2-4721-831E-5929B776C2EB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{459CCFCA-0EFC-4357-BE84-3A3B07E8384A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -299,9 +299,6 @@
     <t>PT Industri Nuklir Indonesia (Persero)</t>
   </si>
   <si>
-    <t>ACHLORA016602</t>
-  </si>
-  <si>
     <t>BA Chloramphenicol - Wuhan Wuyao China</t>
   </si>
   <si>
@@ -323,13 +320,61 @@
     <t>A01123G024</t>
   </si>
   <si>
-    <t>Z08-221118</t>
-  </si>
-  <si>
-    <t>Z08-221228</t>
-  </si>
-  <si>
-    <t>Z08-221117</t>
+    <t>AutomatedTest/01</t>
+  </si>
+  <si>
+    <t>AutomatedTest/02</t>
+  </si>
+  <si>
+    <t>AutomatedTest/03</t>
+  </si>
+  <si>
+    <t>AutomatedTest/04</t>
+  </si>
+  <si>
+    <t>PO/AutomatedTest/2024/001</t>
+  </si>
+  <si>
+    <t>PO/AutomatedTest/2024/002</t>
+  </si>
+  <si>
+    <t>PO/AutomatedTest/2024/003</t>
+  </si>
+  <si>
+    <t>PO/AutomatedTest/2024/004</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F4748</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F4746</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F5266</t>
+  </si>
+  <si>
+    <t>AutomatedTest/F4740</t>
+  </si>
+  <si>
+    <t>Z08-221110</t>
+  </si>
+  <si>
+    <t>Z08-221221</t>
+  </si>
+  <si>
+    <t>Z08-221112</t>
+  </si>
+  <si>
+    <t>Z08-221113</t>
+  </si>
+  <si>
+    <t>GUNA BUMI UTAMA</t>
+  </si>
+  <si>
+    <t>PERTAMINA PATRA NIAGA</t>
+  </si>
+  <si>
+    <t>PRASADHA PAMUNAH LIMBAH INDUSTRI</t>
   </si>
 </sst>
 </file>
@@ -427,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -439,6 +484,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,11 +805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B82376-A17B-48DB-9384-1B57801DFFC8}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,30 +871,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>3000262493</v>
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="2">
-        <v>45114</v>
-      </c>
-      <c r="E2">
-        <v>4100010293</v>
-      </c>
-      <c r="F2" t="s">
+        <v>45480</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2">
         <v>45480</v>
@@ -852,42 +903,42 @@
         <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2">
         <v>2000000345</v>
       </c>
-      <c r="M2" t="s">
-        <v>49</v>
+      <c r="M2" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>3000262493</v>
+      <c r="C3" t="s">
+        <v>54</v>
       </c>
       <c r="D3" s="2">
-        <v>45114</v>
-      </c>
-      <c r="E3">
-        <v>4100010293</v>
-      </c>
-      <c r="F3" t="s">
+        <v>45480</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2">
         <v>45480</v>
@@ -896,42 +947,42 @@
         <v>250</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3">
         <v>2000000345</v>
       </c>
-      <c r="M3" t="s">
-        <v>49</v>
+      <c r="M3" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>3000262492</v>
+      <c r="C4" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="2">
-        <v>45114</v>
-      </c>
-      <c r="E4">
-        <v>4100010291</v>
-      </c>
-      <c r="F4" t="s">
+        <v>45480</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="2">
         <v>45480</v>
@@ -940,42 +991,42 @@
         <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4">
         <v>2000000345</v>
       </c>
-      <c r="M4" t="s">
-        <v>49</v>
+      <c r="M4" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>3000262492</v>
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="2">
-        <v>45114</v>
-      </c>
-      <c r="E5">
-        <v>4100010291</v>
-      </c>
-      <c r="F5" t="s">
+        <v>45480</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2">
         <v>45480</v>
@@ -984,17 +1035,23 @@
         <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5">
         <v>2000000345</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
